--- a/cat-zson/src/main/resources/excel/test.测试.xlsx
+++ b/cat-zson/src/main/resources/excel/test.测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>key</t>
   </si>
@@ -264,6 +264,9 @@
     <t>cost</t>
   </si>
   <si>
+    <t>timePoint</t>
+  </si>
+  <si>
     <t>readme</t>
   </si>
   <si>
@@ -279,7 +282,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>RewardMap</t>
+    <t>ResourceMap</t>
   </si>
   <si>
     <t>output</t>
@@ -312,6 +315,9 @@
     <t>奖励</t>
   </si>
   <si>
+    <t>时间点</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -339,6 +345,9 @@
     <t>100001_2,100002_3</t>
   </si>
   <si>
+    <t>2021y_9mo_9d_30c</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
@@ -357,6 +366,9 @@
     <t>100001_2,100002_4</t>
   </si>
   <si>
+    <t>2021y_9mo_9d_31c</t>
+  </si>
+  <si>
     <t>智能机奖励</t>
   </si>
   <si>
@@ -372,6 +384,9 @@
     <t>100001_2,100002_5</t>
   </si>
   <si>
+    <t>2021y_9mo_9d_32c</t>
+  </si>
+  <si>
     <t>SIM卡奖励</t>
   </si>
   <si>
@@ -387,6 +402,9 @@
     <t>100001_2,100002_6</t>
   </si>
   <si>
+    <t>2021y_9mo_9d_33c</t>
+  </si>
+  <si>
     <t>游戏更新奖励</t>
   </si>
   <si>
@@ -402,6 +420,9 @@
     <t>100001_2,100002_7</t>
   </si>
   <si>
+    <t>2021y_9mo_9d_34c</t>
+  </si>
+  <si>
     <t>充值奖励</t>
   </si>
   <si>
@@ -417,6 +438,9 @@
     <t>100001_2,100002_8</t>
   </si>
   <si>
+    <t>2021y_9mo_9d_35c</t>
+  </si>
+  <si>
     <t>礼包码福利</t>
   </si>
   <si>
@@ -430,6 +454,9 @@
   </si>
   <si>
     <t>100001_2,100002_9</t>
+  </si>
+  <si>
+    <t>2021y_9mo_9d_36c</t>
   </si>
 </sst>
 </file>
@@ -438,9 +465,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -472,14 +499,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,19 +580,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,8 +618,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,84 +634,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,13 +699,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,163 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,6 +903,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -886,6 +928,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,31 +965,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -957,21 +999,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -980,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,16 +1019,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,115 +1037,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1511,23 +1538,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="23.875" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="7" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,88 +1579,100 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1641,169 +1680,191 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>101</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:7">
+    <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="B8">
         <v>10000</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:7">
+    <row r="9" ht="28.5" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>10001</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:7">
+    <row r="10" ht="28.5" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>10002</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="11" ht="42.75" spans="1:7">
+    <row r="11" ht="42.75" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>10003</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:7">
+    <row r="12" ht="28.5" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>10004</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/cat-zson/src/main/resources/excel/test.测试.xlsx
+++ b/cat-zson/src/main/resources/excel/test.测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -499,7 +499,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,42 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -557,95 +589,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -653,6 +647,12 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -699,181 +699,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,16 +902,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -932,17 +932,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,16 +961,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -989,13 +985,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,133 +1019,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/cat-zson/src/main/resources/excel/test.测试.xlsx
+++ b/cat-zson/src/main/resources/excel/test.测试.xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>key</t>
   </si>
@@ -264,6 +264,9 @@
     <t>cost</t>
   </si>
   <si>
+    <t>reward2</t>
+  </si>
+  <si>
     <t>timePoint</t>
   </si>
   <si>
@@ -283,6 +286,9 @@
   </si>
   <si>
     <t>ResourceMap</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si>
     <t>output</t>
@@ -469,12 +475,146 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,20 +622,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -505,141 +640,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -647,14 +651,8 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,37 +661,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,79 +835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,98 +851,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -894,10 +868,88 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,17 +969,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,63 +988,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1007,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,175 +1008,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1538,10 +1500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1551,10 +1513,10 @@
     <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="23.875" customWidth="1"/>
-    <col min="7" max="8" width="19" customWidth="1"/>
+    <col min="7" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="16.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1582,289 +1544,323 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="16.5" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="3" ht="16.5" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" ht="16.5" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>27</v>
+    <row r="5" ht="16.5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
         <v>101</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" ht="28.5" spans="1:8">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>41</v>
+      <c r="B8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="1:8">
-      <c r="A8" s="7" t="s">
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>47</v>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:8">
-      <c r="A9" s="7" t="s">
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9">
-        <v>10001</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>53</v>
+      <c r="I10" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:8">
-      <c r="A10" s="7" t="s">
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10">
-        <v>10002</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>59</v>
+      <c r="I11" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="11" ht="42.75" spans="1:8">
-      <c r="A11" s="7" t="s">
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11">
-        <v>10003</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:8">
-      <c r="A12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>10004</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>71</v>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/cat-zson/src/main/resources/excel/test.测试.xlsx
+++ b/cat-zson/src/main/resources/excel/test.测试.xlsx
@@ -285,6 +285,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>ResourceGroup</t>
+  </si>
+  <si>
     <t>ResourceMap</t>
   </si>
   <si>
@@ -298,9 +301,6 @@
   </si>
   <si>
     <t>client</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>none</t>
@@ -470,9 +470,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -510,6 +510,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -517,8 +525,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,6 +535,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,17 +564,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,14 +613,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -613,14 +621,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,187 +667,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,6 +902,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,17 +988,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -996,145 +996,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1568,10 +1568,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -1582,31 +1582,31 @@
     </row>
     <row r="3" ht="16.5" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>

--- a/cat-zson/src/main/resources/excel/test.测试.xlsx
+++ b/cat-zson/src/main/resources/excel/test.测试.xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>key</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>ResourceGroup</t>
-  </si>
-  <si>
-    <t>ResourceMap</t>
   </si>
   <si>
     <t>map</t>
@@ -470,8 +467,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -496,6 +493,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -504,7 +524,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,55 +592,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,9 +614,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,51 +634,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,31 +670,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,145 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,6 +888,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -906,17 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -928,39 +934,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,8 +956,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,10 +993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1005,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1503,7 +1500,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1568,10 +1565,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -1582,71 +1579,71 @@
     </row>
     <row r="3" ht="16.5" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1657,210 +1654,210 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>10000</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>10001</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
         <v>10002</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
         <v>10003</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
         <v>10004</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/cat-zson/src/main/resources/excel/test.测试.xlsx
+++ b/cat-zson/src/main/resources/excel/test.测试.xlsx
@@ -468,8 +468,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -493,6 +493,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -501,6 +530,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +613,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -516,39 +621,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,83 +634,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,43 +664,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,139 +820,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,22 +888,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,45 +914,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,6 +936,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -993,10 +993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,133 +1005,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/cat-zson/src/main/resources/excel/test.测试.xlsx
+++ b/cat-zson/src/main/resources/excel/test.测试.xlsx
@@ -467,9 +467,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -493,6 +493,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -500,17 +515,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,6 +531,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -531,14 +569,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,10 +598,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,15 +623,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -593,45 +632,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,12 +664,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -682,169 +802,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,6 +888,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -918,6 +933,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -936,43 +971,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,10 +993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,133 +1005,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
